--- a/artfynd/A 38334-2023.xlsx
+++ b/artfynd/A 38334-2023.xlsx
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>501495.1525500226</v>
+        <v>501495</v>
       </c>
       <c r="R3" t="n">
-        <v>7036928.851021441</v>
+        <v>7036929</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -894,19 +894,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
